--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02080029382374066</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.933838580616829</v>
+        <v>-1.93437806838642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391695357572637</v>
+        <v>0.3948286207757271</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2299566183340143</v>
+        <v>-0.231816719601832</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.00166762239654251</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.947765979356008</v>
+        <v>-1.947442578703871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3103093568892042</v>
+        <v>0.3133915184091126</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2096926108802925</v>
+        <v>-0.2115468719557465</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.009937829964495477</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.017883328873807</v>
+        <v>-2.017547517812898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2831495423021206</v>
+        <v>0.2862857256013925</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2271168247971969</v>
+        <v>-0.2289097638528328</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.009564047202274731</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.081825404991108</v>
+        <v>-2.080678537215699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2591945332745816</v>
+        <v>0.2619919854167627</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2339031283237405</v>
+        <v>-0.2353456558375583</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.002101772475895674</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.049098427033389</v>
+        <v>-2.047351479492617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.245547463768858</v>
+        <v>0.2478046981174029</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2218387509485619</v>
+        <v>-0.2230739516334707</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01896520456734268</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.915183546159289</v>
+        <v>-1.912553269523517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2623438570066717</v>
+        <v>0.2652712534289436</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2085683738502928</v>
+        <v>-0.210371533242565</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03014862211852871</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.643696363943362</v>
+        <v>-1.640916432378272</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2602662085733086</v>
+        <v>0.2641543166393985</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1837008347659358</v>
+        <v>-0.186368342628026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02415629162920054</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.267060898364463</v>
+        <v>-1.264370029732918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2448335002524037</v>
+        <v>0.2480441460043119</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1263253249374967</v>
+        <v>-0.1291417577048596</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.007297588146573501</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7799260731694121</v>
+        <v>-0.7779725288237762</v>
       </c>
       <c r="F10" t="n">
-        <v>0.269487872315488</v>
+        <v>0.2731861741297597</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02686538893670519</v>
+        <v>-0.02847582198097749</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07070288664266755</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2451162976619193</v>
+        <v>-0.2438621163518288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1628255190822439</v>
+        <v>0.165542668579425</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0612850145519075</v>
+        <v>0.0598921286731806</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1687484132959048</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4227111591678104</v>
+        <v>0.4254166282802643</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04145610142927646</v>
+        <v>0.04292052966445789</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1602470741536991</v>
+        <v>0.1589622318336995</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3009229123603783</v>
       </c>
       <c r="E13" t="n">
-        <v>1.107965750010626</v>
+        <v>1.109966015895171</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1236899381334065</v>
+        <v>-0.121521766718407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2920631358971182</v>
+        <v>0.2914221747852093</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4624956437268968</v>
       </c>
       <c r="E14" t="n">
-        <v>1.824674156875889</v>
+        <v>1.826975192667161</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3465969402205284</v>
+        <v>-0.3460640226673468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4385264000885335</v>
+        <v>0.4382475309031699</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6462027960037604</v>
       </c>
       <c r="E15" t="n">
-        <v>2.529772261322245</v>
+        <v>2.532036795911244</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6181980061875464</v>
+        <v>-0.6172723356979103</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6267587200646647</v>
+        <v>0.6267616401608466</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8455813196919237</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202052864829246</v>
+        <v>3.204117372829791</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9369411049138244</v>
+        <v>-0.9357730664410975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7824786891524411</v>
+        <v>0.7829575849262592</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.054531082828646</v>
       </c>
       <c r="E17" t="n">
-        <v>3.859933014015615</v>
+        <v>3.86166171095525</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.196644238988027</v>
+        <v>-1.195411958399301</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9813474594708422</v>
+        <v>0.981510984857024</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.2665834721073</v>
       </c>
       <c r="E18" t="n">
-        <v>4.399958081303834</v>
+        <v>4.401584574877106</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556772400851113</v>
+        <v>-1.554903539294749</v>
       </c>
       <c r="G18" t="n">
-        <v>1.180535980321152</v>
+        <v>1.181270384510879</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.475230967541754</v>
       </c>
       <c r="E19" t="n">
-        <v>4.928961245553782</v>
+        <v>4.929929257438054</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.839855285005036</v>
+        <v>-1.838820840932628</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377400104610736</v>
+        <v>1.37915800251219</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.670244217823924</v>
       </c>
       <c r="E20" t="n">
-        <v>5.290943668492321</v>
+        <v>5.292184709369594</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.160348251368269</v>
+        <v>-2.159461272153042</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586759320462316</v>
+        <v>1.588651542788134</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.841747597835828</v>
       </c>
       <c r="E21" t="n">
-        <v>5.602066776232147</v>
+        <v>5.602736938305874</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.476496114612956</v>
+        <v>-2.476165413720365</v>
       </c>
       <c r="G21" t="n">
-        <v>1.767050438871995</v>
+        <v>1.76959676274254</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.978247915265135</v>
       </c>
       <c r="E22" t="n">
-        <v>5.839731944422174</v>
+        <v>5.840315963658537</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.786433663302964</v>
+        <v>-2.786004409164237</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894492196535052</v>
+        <v>1.897010779491869</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.071992255723317</v>
       </c>
       <c r="E23" t="n">
-        <v>5.989969432928588</v>
+        <v>5.992596059444133</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.037396949504988</v>
+        <v>-3.036480039303897</v>
       </c>
       <c r="G23" t="n">
-        <v>2.012754631850565</v>
+        <v>2.015921476159746</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.120673909133383</v>
       </c>
       <c r="E24" t="n">
-        <v>6.080289467880291</v>
+        <v>6.082523341459382</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.271220001143789</v>
+        <v>-3.270931641645834</v>
       </c>
       <c r="G24" t="n">
-        <v>2.114917116867629</v>
+        <v>2.118732222529173</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.125940525617513</v>
       </c>
       <c r="E25" t="n">
-        <v>6.094056261329469</v>
+        <v>6.097300488187469</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.446001628082423</v>
+        <v>-3.446319918566242</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171677946449795</v>
+        <v>2.174452037822522</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.09307622280495</v>
       </c>
       <c r="E26" t="n">
-        <v>6.041884362897028</v>
+        <v>6.044410246094301</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.611547720822015</v>
+        <v>-3.612264604434651</v>
       </c>
       <c r="G26" t="n">
-        <v>2.197995313288425</v>
+        <v>2.201360724137969</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.025706639622959</v>
       </c>
       <c r="E27" t="n">
-        <v>5.940630027792511</v>
+        <v>5.942726656851056</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.699995244097128</v>
+        <v>-3.701504203799082</v>
       </c>
       <c r="G27" t="n">
-        <v>2.199963458114969</v>
+        <v>2.203896827671878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.928938209403869</v>
       </c>
       <c r="E28" t="n">
-        <v>5.868119659453712</v>
+        <v>5.870392954331257</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.767099054355292</v>
+        <v>-3.768368566170337</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207818516844058</v>
+        <v>2.21145257654233</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.807519969792822</v>
       </c>
       <c r="E29" t="n">
-        <v>5.671762171851674</v>
+        <v>5.674180011490218</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.805236970537918</v>
+        <v>-3.807929299217554</v>
       </c>
       <c r="G29" t="n">
-        <v>2.205356875762786</v>
+        <v>2.210064070807876</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.668674411359775</v>
       </c>
       <c r="E30" t="n">
-        <v>5.460840704542822</v>
+        <v>5.463116919516548</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.83136599117282</v>
+        <v>-3.836094356915228</v>
       </c>
       <c r="G30" t="n">
-        <v>2.15957122767998</v>
+        <v>2.164255061955616</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.519977486089896</v>
       </c>
       <c r="E31" t="n">
-        <v>5.182319010624896</v>
+        <v>5.184608366031441</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.728006266721211</v>
+        <v>-3.732209745174937</v>
       </c>
       <c r="G31" t="n">
-        <v>2.07698360741773</v>
+        <v>2.082181378621365</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.368739602158419</v>
       </c>
       <c r="E32" t="n">
-        <v>4.875716211774524</v>
+        <v>4.878047908575705</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.646057417498733</v>
+        <v>-3.651031071320414</v>
       </c>
       <c r="G32" t="n">
-        <v>1.931183205059587</v>
+        <v>1.936106487222131</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.220504837144841</v>
       </c>
       <c r="E33" t="n">
-        <v>4.593969271623782</v>
+        <v>4.597210578385599</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.509965604921088</v>
+        <v>-3.513972706906587</v>
       </c>
       <c r="G33" t="n">
-        <v>1.838915465954612</v>
+        <v>1.843869409127065</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.079472824834266</v>
       </c>
       <c r="E34" t="n">
-        <v>4.26265515883478</v>
+        <v>4.264658344815506</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.397225071485391</v>
+        <v>-3.400522590098709</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714258020000918</v>
+        <v>1.718381195809644</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9487251219861821</v>
       </c>
       <c r="E35" t="n">
-        <v>3.918454661595417</v>
+        <v>3.921057927341507</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.278602734315468</v>
+        <v>-3.282569684978467</v>
       </c>
       <c r="G35" t="n">
-        <v>1.60066335843204</v>
+        <v>1.605399754438947</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8298392243056625</v>
       </c>
       <c r="E36" t="n">
-        <v>3.582887428717598</v>
+        <v>3.585887827544416</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.153216724364411</v>
+        <v>-3.158274330951319</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455449895406442</v>
+        <v>1.458718943081987</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.722308416141597</v>
       </c>
       <c r="E37" t="n">
-        <v>3.233369436331146</v>
+        <v>3.235298159859237</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.013560934396858</v>
+        <v>-3.01783084503872</v>
       </c>
       <c r="G37" t="n">
-        <v>1.324549283816023</v>
+        <v>1.32807968009984</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6254657131188905</v>
       </c>
       <c r="E38" t="n">
-        <v>2.87426768827597</v>
+        <v>2.877122082293697</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.958647795673736</v>
+        <v>-2.962179652005644</v>
       </c>
       <c r="G38" t="n">
-        <v>1.178750341505971</v>
+        <v>1.181972667642607</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5376604285175267</v>
       </c>
       <c r="E39" t="n">
-        <v>2.530292038442608</v>
+        <v>2.533549405733425</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.81910807952941</v>
+        <v>-2.822833392233364</v>
       </c>
       <c r="G39" t="n">
-        <v>1.077958841646271</v>
+        <v>1.081424995814088</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4575239955126823</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213013367951512</v>
+        <v>2.216596325966601</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702234879972396</v>
+        <v>-2.705719284741349</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9577735229950304</v>
+        <v>0.9611564544216659</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.384258956937661</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880196865676965</v>
+        <v>1.883392910947964</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.573105306716249</v>
+        <v>-2.576675124298521</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8359368899529722</v>
+        <v>0.8389548093568805</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3161118709304032</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549085699572599</v>
+        <v>1.551059684591507</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.508062354338402</v>
+        <v>-2.512621354502265</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7197798439845489</v>
+        <v>0.7224093905962754</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2511922794197376</v>
       </c>
       <c r="E43" t="n">
-        <v>1.283911765301761</v>
+        <v>1.28654569205776</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.427684516861742</v>
+        <v>-2.432320899574423</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6558618586607479</v>
+        <v>0.6586432502739289</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1892729369688288</v>
       </c>
       <c r="E44" t="n">
-        <v>1.015582667106469</v>
+        <v>1.018334857757832</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.313275878482182</v>
+        <v>-2.317943652228817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5483687380637767</v>
+        <v>0.5507515365481397</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1298491243273638</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7952044683128013</v>
+        <v>0.798664782288255</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.269046641664285</v>
+        <v>-2.27329684165692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4418509295915326</v>
+        <v>0.4438672560050775</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.07452736270374669</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5609295317898643</v>
+        <v>0.5642000395134997</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.177994392594991</v>
+        <v>-2.182592084033263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3745733736105507</v>
+        <v>0.3774525884458226</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.02375038051646712</v>
       </c>
       <c r="E47" t="n">
-        <v>0.362381972051463</v>
+        <v>0.3653341892912804</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.088683980898152</v>
+        <v>-2.093537180752332</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2941349441381177</v>
+        <v>0.2960899485318444</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02196435050250863</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2432376676890405</v>
+        <v>0.2458788946854943</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.984199289392498</v>
+        <v>-1.988817421504042</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2051420929010507</v>
+        <v>0.206959852774232</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06234823330003031</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1142365786648933</v>
+        <v>0.1179232000944378</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.885848989940797</v>
+        <v>-1.890395579695887</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1528300298518829</v>
+        <v>0.1544083418381552</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0978837344132608</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009146697225557868</v>
+        <v>0.01275155596201145</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.801769200529638</v>
+        <v>-1.806083642638273</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0864591637353553</v>
+        <v>0.08813237884753666</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1289907267350108</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08152812941223597</v>
+        <v>-0.07776266538578243</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.672275345274809</v>
+        <v>-1.676281717236262</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02877120361546169</v>
+        <v>0.03038309670782489</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1567566693911499</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.186336221570026</v>
+        <v>-0.1835913311591177</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.552408317107386</v>
+        <v>-1.556007335651476</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008645448810255536</v>
+        <v>-0.007719778320619422</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1823346964023668</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3065142399808119</v>
+        <v>-0.3047154607328124</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.439713045162508</v>
+        <v>-1.442598100190143</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07614055195678286</v>
+        <v>-0.07555361262423757</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2063609472103601</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3405099997295301</v>
+        <v>-0.3387929831746214</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.367994022888982</v>
+        <v>-1.370982741331072</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1399811547317657</v>
+        <v>-0.1399636341546748</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.228989761530132</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4690102922584956</v>
+        <v>-0.4677531908522232</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.323391013759811</v>
+        <v>-1.327159397882447</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1503737770428538</v>
+        <v>-0.1507840505563992</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2503461211795203</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5490355281212014</v>
+        <v>-0.548737678310656</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237281757502289</v>
+        <v>-1.239096597279289</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2002358793954768</v>
+        <v>-0.2000241724222951</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2702143474724895</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6492941104277199</v>
+        <v>-0.6500182942808106</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.196276306869118</v>
+        <v>-1.198136408136936</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2301274439606506</v>
+        <v>-0.2308516278137413</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2889314471768564</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6723219889175319</v>
+        <v>-0.6727760638738045</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.15604614177222</v>
+        <v>-1.156903190001584</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2647072229457322</v>
+        <v>-0.2654825084820048</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3063868885113361</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7675317249256881</v>
+        <v>-0.7669652262664155</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142877968040315</v>
+        <v>-1.143407965497314</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3170572472452636</v>
+        <v>-0.3182209055737178</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3227007309852933</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8334806371439432</v>
+        <v>-0.833228048824216</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102710585011325</v>
+        <v>-1.102025822456689</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3510530069939818</v>
+        <v>-0.352136362677436</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3378431414638882</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.964692238977726</v>
+        <v>-0.9653419603781804</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.094381010652691</v>
+        <v>-1.093818892137691</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3941010649063338</v>
+        <v>-0.3955406723239698</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3518454805834137</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.086657356251784</v>
+        <v>-1.08726035611333</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.094213105122237</v>
+        <v>-1.093648066511055</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4361971714634135</v>
+        <v>-0.4376674398909585</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3652084441508419</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.145833105376314</v>
+        <v>-1.14685513903995</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.133435837036408</v>
+        <v>-1.132978841983954</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4956620101099429</v>
+        <v>-0.4976578958502151</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3784137906149994</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.242345204281561</v>
+        <v>-1.242261981540379</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.162318508370764</v>
+        <v>-1.161854213077855</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5238102772545717</v>
+        <v>-0.5256951993399349</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3918346303013423</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.37367945015498</v>
+        <v>-1.375034374783343</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.123362965257229</v>
+        <v>-1.122939551310865</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5488851431678378</v>
+        <v>-0.5505568982319282</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4054717678934287</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.432954482549691</v>
+        <v>-1.4341254411186</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.202494651688299</v>
+        <v>-1.202091678415208</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6033901984495503</v>
+        <v>-0.6055598299126407</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4195335096241017</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.532472820474119</v>
+        <v>-1.533096261008937</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.293410386261092</v>
+        <v>-1.293692175542638</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6480691300794474</v>
+        <v>-0.6501949600998106</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4340304143830961</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.557160773643294</v>
+        <v>-1.556547553445113</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.363282447699619</v>
+        <v>-1.364250459583892</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6716459866514412</v>
+        <v>-0.6738316786435314</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4489162102542578</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622738833646459</v>
+        <v>-1.622138753881095</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.445700702383324</v>
+        <v>-1.446608852295869</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6665036972752607</v>
+        <v>-0.6678308809898967</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4639192843265073</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677524218161626</v>
+        <v>-1.677074523349626</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.520550067763759</v>
+        <v>-1.521088825509304</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6916165244388903</v>
+        <v>-0.6933612819075262</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4784802459376202</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.711244028821162</v>
+        <v>-1.711430914976798</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.631785291617729</v>
+        <v>-1.63283214609891</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7331256916634247</v>
+        <v>-0.7356238339469694</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4923985799099899</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690944980213258</v>
+        <v>-1.691077844589531</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.726095638001885</v>
+        <v>-1.728082763453612</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7550074324018733</v>
+        <v>-0.7575143349739636</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5053058038184338</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.679574125681261</v>
+        <v>-1.681402105891079</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.778207674462599</v>
+        <v>-1.77962392111078</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7761474687101404</v>
+        <v>-0.7780659719015944</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5171934741353499</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630782238579275</v>
+        <v>-1.631880194743638</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.849466781587489</v>
+        <v>-1.851215919200397</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7738478929669591</v>
+        <v>-0.7766628656862311</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5274694056623702</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542487290329662</v>
+        <v>-1.543607147215389</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.951298565711961</v>
+        <v>-1.953274010778961</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7768512118899583</v>
+        <v>-0.7791245067675032</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5353215265994086</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424337278717148</v>
+        <v>-1.426216360610148</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.003883657754129</v>
+        <v>-2.00562111498231</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7636567572924164</v>
+        <v>-0.7656088415899613</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.539844765807506</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.288449142848185</v>
+        <v>-1.289719384687275</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.055343052718206</v>
+        <v>-2.057468882738569</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7504170412040564</v>
+        <v>-0.7524669487236921</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5400754419666092</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104916717676689</v>
+        <v>-1.105375172777234</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081407101213062</v>
+        <v>-2.082726254663199</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7243070011943361</v>
+        <v>-0.7257101074096993</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5351588143191897</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9425345491500957</v>
+        <v>-0.9429360623750955</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078458534093472</v>
+        <v>-2.07988500107829</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6691989460510782</v>
+        <v>-0.6704677278420779</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5246592292072695</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7003257113011607</v>
+        <v>-0.7012221808289787</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.112309019057145</v>
+        <v>-2.114041366117009</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6111226131390028</v>
+        <v>-0.612766627289366</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5081632225073971</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4432930051852297</v>
+        <v>-0.4436463368232296</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.114226792224554</v>
+        <v>-2.115873726471099</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5170502545936645</v>
+        <v>-0.5183409371060278</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4857993127974627</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1549714684811253</v>
+        <v>-0.1554678848320343</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.100086956488148</v>
+        <v>-2.102497495886239</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4485900596590465</v>
+        <v>-0.4499391440950462</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4582449481072499</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1443456903956125</v>
+        <v>0.144145663807158</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.035489318778029</v>
+        <v>-2.039260622996847</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3345997250575317</v>
+        <v>-0.3358685068485313</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4261878062689639</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4878336841666112</v>
+        <v>0.4875504348369749</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.978151770199954</v>
+        <v>-1.981552952227726</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2538955668325533</v>
+        <v>-0.2548913196305531</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3901541633445176</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7927778683857111</v>
+        <v>0.7911805757742569</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.906328354487928</v>
+        <v>-1.909790128511472</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1800915958852095</v>
+        <v>-0.1810669080099365</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3508443282603332</v>
       </c>
       <c r="E86" t="n">
-        <v>1.108380403668445</v>
+        <v>1.10763431909399</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.857011580097259</v>
+        <v>-1.861026712347258</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1056612643068658</v>
+        <v>-0.1061094990707748</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3092501247768919</v>
       </c>
       <c r="E87" t="n">
-        <v>1.353929831549379</v>
+        <v>1.353759005922742</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.683796584760169</v>
+        <v>-1.688297913024441</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05941132093115099</v>
+        <v>-0.05930035727624194</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2665592288516598</v>
       </c>
       <c r="E88" t="n">
-        <v>1.577416472728591</v>
+        <v>1.577429613161409</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.50360182952449</v>
+        <v>-1.507678283794307</v>
       </c>
       <c r="G88" t="n">
-        <v>0.009971624396921282</v>
+        <v>0.01040087853564844</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2242080201900667</v>
       </c>
       <c r="E89" t="n">
-        <v>1.764639899473905</v>
+        <v>1.763176931286814</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.272971173036461</v>
+        <v>-1.277330876635915</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06563741791090634</v>
+        <v>0.06569581983454269</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.182773219955194</v>
       </c>
       <c r="E90" t="n">
-        <v>1.946125337221947</v>
+        <v>1.944872615959947</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.044470726713068</v>
+        <v>-1.048989575554431</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09803588504817036</v>
+        <v>0.09845637889835207</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1425485649612812</v>
       </c>
       <c r="E91" t="n">
-        <v>2.129292750370716</v>
+        <v>2.12839920093908</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.820481828990583</v>
+        <v>-0.8249597964854</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08144389854308391</v>
+        <v>0.08128621334926577</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1036382013963376</v>
       </c>
       <c r="E92" t="n">
-        <v>2.245817728458048</v>
+        <v>2.246781360198048</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6201135892828186</v>
+        <v>-0.6251638956292718</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09271984994917179</v>
+        <v>0.09365282067926245</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06689709626707846</v>
       </c>
       <c r="E93" t="n">
-        <v>2.349180373005839</v>
+        <v>2.35086964864702</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.371870372674158</v>
+        <v>-0.3763585605056113</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04379801856709402</v>
+        <v>0.04484195295209373</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0336783627252415</v>
       </c>
       <c r="E94" t="n">
-        <v>2.369212232813106</v>
+        <v>2.371529329133378</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.229896756362287</v>
+        <v>-0.2344491863097403</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0085480775082853</v>
+        <v>0.009526309729194129</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.00491158579660367</v>
       </c>
       <c r="E95" t="n">
-        <v>2.324804870128118</v>
+        <v>2.327400835633754</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06524859319860397</v>
+        <v>-0.06880089020378484</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0281589915452503</v>
+        <v>-0.02746254860588685</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01792890486248171</v>
       </c>
       <c r="E96" t="n">
-        <v>2.226559694138962</v>
+        <v>2.229043235941598</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0548213816534547</v>
+        <v>0.05076390800881942</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06978934276133003</v>
+        <v>-0.0686096239038758</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0342058135163669</v>
       </c>
       <c r="E97" t="n">
-        <v>2.078153105938548</v>
+        <v>2.080127090957456</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1270718614320717</v>
+        <v>0.1240627023167088</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1248521364137698</v>
+        <v>-0.12401698890577</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04339047434307414</v>
       </c>
       <c r="E98" t="n">
-        <v>1.885382956495872</v>
+        <v>1.886647358142599</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1935055096165084</v>
+        <v>0.1912541154603271</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1399840748279475</v>
+        <v>-0.1396453436708567</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.04555846858156998</v>
       </c>
       <c r="E99" t="n">
-        <v>1.688404948455198</v>
+        <v>1.689140812693016</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2037448268780511</v>
+        <v>0.2025154663855059</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1341497226566764</v>
+        <v>-0.1343103279466763</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0411573535687032</v>
       </c>
       <c r="E100" t="n">
-        <v>1.529678740348241</v>
+        <v>1.529214445055332</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2282721747572263</v>
+        <v>0.2269157900807721</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1299316437220412</v>
+        <v>-0.1294250070344958</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03270416349517841</v>
       </c>
       <c r="E101" t="n">
-        <v>1.386332678830915</v>
+        <v>1.385852323009006</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2200477238611376</v>
+        <v>0.2194476440957741</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1108006335868645</v>
+        <v>-0.1103786796885919</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0211442242447569</v>
       </c>
       <c r="E102" t="n">
-        <v>1.204209200067146</v>
+        <v>1.202224994711601</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2345868827504064</v>
+        <v>0.2344671588069519</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1425099580252196</v>
+        <v>-0.1423989943703105</v>
       </c>
     </row>
   </sheetData>
